--- a/item.xlsx
+++ b/item.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="190" yWindow="550" windowWidth="18880" windowHeight="6740"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Customers" state="visible" r:id="rId4"/>
+    <sheet name="Customers" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Id</t>
   </si>
@@ -28,65 +31,23 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>books</t>
-  </si>
-  <si>
-    <t>thriller</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>watches</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>Tshirt</t>
-  </si>
-  <si>
-    <t>polo</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>caps</t>
-  </si>
-  <si>
-    <t>reebok</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>800</t>
+    <t>headphones</t>
+  </si>
+  <si>
+    <t>jbl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -449,17 +410,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="10" outlineLevel="1" collapsed="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,9 +442,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -486,66 +452,15 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
+      <c r="D2">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>